--- a/M.Palermo/VBA/TP2 VBA/TP2 VBA Gianni Seccia, Louis Dalet.xlsx
+++ b/M.Palermo/VBA/TP2 VBA/TP2 VBA Gianni Seccia, Louis Dalet.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Bureau\four tout\Espace DEV AIX\GIT-ESGI1\ESGI1-Cours\M.Palermo\VBA\TP2 VBA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C35A4DD-7142-4986-8AF5-61E7F46901BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +28,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>Pommes</t>
+  </si>
+  <si>
+    <t>Poissons</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Lait</t>
+  </si>
+  <si>
+    <t>Surgelés</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Produits d'épicerie</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>Poulet</t>
+  </si>
+  <si>
+    <t>Produits Laitiers</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>Riz</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>Yaourt</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>Œufs</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>Pates</t>
+  </si>
+  <si>
+    <t>Légumes</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>Fromage</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>Jus d'orange</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>Céréales</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>Eau minérale</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>Salade</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>Beurre</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>Confiture</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>Fruits surgelés</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>Café moulu</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Produit</t>
+  </si>
+  <si>
+    <t>Prix unitaire (euros)</t>
+  </si>
+  <si>
+    <t>Quantité en stock</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Viande</t>
+  </si>
+  <si>
+    <t>Petit-Déjeuner</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Epicerie</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Boulangerie</t>
+  </si>
+  <si>
+    <t>Boissons</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +252,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="TotalEnStock"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD443608-F302-41A1-89D9-0770C40AC589}" name="Tableau1" displayName="Tableau1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{BD443608-F302-41A1-89D9-0770C40AC589}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2E339B94-CC4F-409F-A4DC-FC7442F42865}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{014A2C04-1791-481F-A6A4-238486BCB713}" name="Produit"/>
+    <tableColumn id="3" xr3:uid="{5029C3E3-6B0D-4330-8C7F-57B1B419932F}" name="Prix unitaire (euros)"/>
+    <tableColumn id="4" xr3:uid="{693B6D7D-4E5A-4607-BEA9-5F30E40160F9}" name="Quantité en stock"/>
+    <tableColumn id="5" xr3:uid="{84ACD66B-9480-4A42-BE2C-266FC7E497DD}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C474306-CA8C-42A8-B885-0D26170D7C90}" name="Tableau24" displayName="Tableau24" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{5C474306-CA8C-42A8-B885-0D26170D7C90}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5A2B07B9-0BAF-4DBC-B90D-4A841830AD64}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +561,471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5.5</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>4.75</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1.3</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>2.8</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>3.25</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B0081C-0AD6-4BEC-9328-1F6CED6E7E5D}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/M.Palermo/VBA/TP2 VBA/TP2 VBA Gianni Seccia, Louis Dalet.xlsx
+++ b/M.Palermo/VBA/TP2 VBA/TP2 VBA Gianni Seccia, Louis Dalet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Bureau\four tout\Espace DEV AIX\GIT-ESGI1\ESGI1-Cours\M.Palermo\VBA\TP2 VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C35A4DD-7142-4986-8AF5-61E7F46901BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85020EB0-5588-48DA-8F2E-463D48D5BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -254,25 +251,83 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="TotalEnStock"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190499</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Prix en Stock</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,12 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +664,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,10 +991,67 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{50CCE031-659D-41A3-B7C1-65DF2067E344}">
+      <formula1>$D$2:$D$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{6933DF5E-D6C3-4A3D-97D7-711C5A13D475}">
+      <formula1>$C$2:$C$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21" xr:uid="{C0778115-9761-420B-8952-AE2329BD9CB8}">
+      <formula1>$B$2:$B$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{5695CE36-1DC9-4717-B54C-6D95990FA714}">
+      <formula1>$A$2:$A$21</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Bouton_Cliquer">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C379B3C-DF94-41DB-B956-1D10D718368D}">
+          <x14:formula1>
+            <xm:f>DATA!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -949,7 +1061,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
